--- a/dayInfo.xlsx
+++ b/dayInfo.xlsx
@@ -4,27 +4,43 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16950" windowHeight="11850"/>
+    <workbookView windowWidth="19455" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>星期一</t>
   </si>
   <si>
+    <t>View - 自定义</t>
+  </si>
+  <si>
+    <t>七日年化率，图标</t>
+  </si>
+  <si>
     <t>星期二</t>
   </si>
   <si>
+    <t>银行四位间隔卡号</t>
+  </si>
+  <si>
     <t>星期三</t>
   </si>
   <si>
+    <t>租房结算</t>
+  </si>
+  <si>
+    <t>已结算</t>
+  </si>
+  <si>
     <t>星期四</t>
   </si>
   <si>
@@ -34,37 +50,22 @@
     <t>提取急需</t>
   </si>
   <si>
-    <t>购买</t>
-  </si>
-  <si>
-    <t>刮胡刀</t>
-  </si>
-  <si>
-    <t>耳机</t>
-  </si>
-  <si>
-    <t>租房结算</t>
-  </si>
-  <si>
-    <t>记录电费发送、清理物品、房屋结算</t>
-  </si>
-  <si>
-    <t>押金还没退还</t>
-  </si>
-  <si>
-    <t>事件</t>
-  </si>
-  <si>
-    <t>理发</t>
-  </si>
-  <si>
-    <t>work整理，放入lib进入git管理</t>
-  </si>
-  <si>
-    <t>方便同步</t>
-  </si>
-  <si>
-    <t>取现</t>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>aar - blog</t>
+  </si>
+  <si>
+    <t>Zxing集成方案 - CSDN</t>
+  </si>
+  <si>
+    <t>Wiz开了个头，还差各个问题解决的记录(不好一气呵成，放回去写)</t>
+  </si>
+  <si>
+    <t>买药</t>
+  </si>
+  <si>
+    <t>存钱，1000块</t>
   </si>
   <si>
     <t>工作</t>
@@ -91,34 +92,13 @@
     <t>LeetCode</t>
   </si>
   <si>
-    <t>回归测试 - 36</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>aar - blog</t>
-  </si>
-  <si>
-    <t>Zxing集成方案 - CSDN</t>
-  </si>
-  <si>
-    <t>Wiz开了个头，还差各个问题解决的记录</t>
-  </si>
-  <si>
-    <t>View - 自定义</t>
+    <t>回归测试 - 37</t>
   </si>
   <si>
     <t xml:space="preserve">Hencoder
 https://hencoder.com/about-hencoder/ </t>
   </si>
   <si>
-    <t>七日年化率，图标</t>
-  </si>
-  <si>
-    <t>银行四位间隔卡号</t>
-  </si>
-  <si>
     <t>生活</t>
   </si>
   <si>
@@ -128,7 +108,16 @@
     <t>元尊</t>
   </si>
   <si>
-    <t>306 Chapter【未看完】</t>
+    <t>chapter 595</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>龙族5</t>
+  </si>
+  <si>
+    <t>chapter 75 - 雷霆与守望者(26)</t>
   </si>
   <si>
     <t>旅游</t>
@@ -156,10 +145,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -178,45 +167,108 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,14 +281,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,73 +297,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -329,13 +318,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,25 +378,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,31 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,97 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +517,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +586,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -575,55 +603,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,7 +621,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,143 +630,144 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="32" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="32" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1138,118 +1128,117 @@
   <sheetPr/>
   <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.125" customWidth="1"/>
-    <col min="2" max="2" width="18.3666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.3666666666667" style="4" customWidth="1"/>
     <col min="3" max="3" width="33.6916666666667" customWidth="1"/>
     <col min="4" max="4" width="41.1916666666667" customWidth="1"/>
     <col min="5" max="5" width="24.45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:5">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
+    <row r="4" spans="2:4">
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
-        <v>4000</v>
-      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" ht="54" spans="1:3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1257,114 +1246,94 @@
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="28" ht="40.5" spans="1:3">
       <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    </row>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
     <row r="32" s="2" customFormat="1" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="2:2">
-      <c r="B34" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:4">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="35" customFormat="1" spans="2:2">
-      <c r="B35" s="3"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:2">
       <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" ht="27" spans="1:1">
+      <c r="A37" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:1">
+      <c r="A38" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" ht="27" spans="1:1">
-      <c r="A37" s="9" t="s">
+      <c r="C43" s="12" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="38" ht="27" spans="1:1">
-      <c r="A38" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1374,4 +1343,24 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/dayInfo.xlsx
+++ b/dayInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="13230"/>
+    <workbookView windowWidth="14505" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,32 +15,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>星期一</t>
   </si>
   <si>
-    <t>View - 自定义</t>
-  </si>
-  <si>
-    <t>七日年化率，图标</t>
-  </si>
-  <si>
     <t>星期二</t>
   </si>
   <si>
-    <t>银行四位间隔卡号</t>
-  </si>
-  <si>
     <t>星期三</t>
   </si>
   <si>
-    <t>租房结算</t>
-  </si>
-  <si>
-    <t>已结算</t>
-  </si>
-  <si>
     <t>星期四</t>
   </si>
   <si>
@@ -60,12 +45,6 @@
   </si>
   <si>
     <t>Wiz开了个头，还差各个问题解决的记录(不好一气呵成，放回去写)</t>
-  </si>
-  <si>
-    <t>买药</t>
-  </si>
-  <si>
-    <t>存钱，1000块</t>
   </si>
   <si>
     <t>工作</t>
@@ -95,6 +74,9 @@
     <t>回归测试 - 37</t>
   </si>
   <si>
+    <t>View - 自定义</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hencoder
 https://hencoder.com/about-hencoder/ </t>
   </si>
@@ -108,7 +90,7 @@
     <t>元尊</t>
   </si>
   <si>
-    <t>chapter 595</t>
+    <t>chapter 600</t>
   </si>
   <si>
     <t>ok</t>
@@ -117,7 +99,7 @@
     <t>龙族5</t>
   </si>
   <si>
-    <t>chapter 75 - 雷霆与守望者(26)</t>
+    <t>chapter 76 - 雷霆与守望者(27)</t>
   </si>
   <si>
     <t>旅游</t>
@@ -145,10 +127,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -189,21 +171,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,25 +209,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,13 +228,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,6 +239,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -264,40 +261,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,169 +312,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,31 +488,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -555,7 +542,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,37 +571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,7 +603,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,68 +612,68 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,70 +682,68 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1128,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1141,79 +1121,55 @@
     <col min="5" max="5" width="24.45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:2">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:5">
       <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="C3"/>
+      <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="4"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:2">
@@ -1227,83 +1183,83 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" ht="54" spans="1:3">
-      <c r="A21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>20</v>
+      <c r="A21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="40.5" spans="1:3">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="1"/>
     <row r="30" customFormat="1"/>
     <row r="32" s="2" customFormat="1" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:4">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="2:2">
@@ -1311,29 +1267,29 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" ht="27" spans="1:1">
-      <c r="A37" s="10" t="s">
-        <v>34</v>
+      <c r="A37" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:1">
-      <c r="A38" s="10" t="s">
-        <v>35</v>
+      <c r="A38" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>38</v>
+      <c r="A43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/dayInfo.xlsx
+++ b/dayInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14505" windowHeight="8625"/>
+    <workbookView windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>星期一</t>
   </si>
@@ -74,6 +74,15 @@
     <t>回归测试 - 37</t>
   </si>
   <si>
+    <t>极客时间-数据结构与算法之美</t>
+  </si>
+  <si>
+    <t>https://time.geekbang.org/column/intro/126</t>
+  </si>
+  <si>
+    <t>递归 - 10 如何用三行代码找到“最终推荐人”</t>
+  </si>
+  <si>
     <t>View - 自定义</t>
   </si>
   <si>
@@ -90,7 +99,7 @@
     <t>元尊</t>
   </si>
   <si>
-    <t>chapter 600</t>
+    <t>chapter 616</t>
   </si>
   <si>
     <t>ok</t>
@@ -99,7 +108,7 @@
     <t>龙族5</t>
   </si>
   <si>
-    <t>chapter 76 - 雷霆与守望者(27)</t>
+    <t>chapter 81 - 雷霆与守望者(32)</t>
   </si>
   <si>
     <t>旅游</t>
@@ -127,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -170,10 +179,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,93 +279,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,169 +321,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,13 +497,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,6 +546,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -523,41 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,31 +594,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,7 +612,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,68 +621,68 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,56 +691,56 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -755,6 +764,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
@@ -1108,15 +1120,15 @@
   <sheetPr/>
   <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="2" max="2" width="18.3666666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.6916666666667" customWidth="1"/>
+    <col min="3" max="3" width="36.3" customWidth="1"/>
     <col min="4" max="4" width="41.1916666666667" customWidth="1"/>
     <col min="5" max="5" width="24.45" customWidth="1"/>
   </cols>
@@ -1215,51 +1227,62 @@
         <v>17</v>
       </c>
     </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="28" ht="40.5" spans="1:3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" customFormat="1"/>
     <row r="30" customFormat="1"/>
     <row r="32" s="2" customFormat="1" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:4">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="2:2">
@@ -1267,34 +1290,35 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B36" s="6"/>
     </row>
     <row r="37" ht="27" spans="1:1">
       <c r="A37" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:1">
       <c r="A38" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>32</v>
+      <c r="A43" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B43" r:id="rId1" display="957339173@qq.com"/>
+    <hyperlink ref="B26" r:id="rId2" display="https://time.geekbang.org/column/intro/126"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/dayInfo.xlsx
+++ b/dayInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650"/>
+    <workbookView windowWidth="18030" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>星期一</t>
   </si>
@@ -99,7 +99,7 @@
     <t>元尊</t>
   </si>
   <si>
-    <t>chapter 616</t>
+    <t>chapter 622</t>
   </si>
   <si>
     <t>ok</t>
@@ -108,18 +108,20 @@
     <t>龙族5</t>
   </si>
   <si>
-    <t>chapter 81 - 雷霆与守望者(32)</t>
+    <t>chapter 83 - 雷霆与守望者(34)</t>
   </si>
   <si>
     <t>旅游</t>
   </si>
   <si>
-    <t>横店旅游计划
+    <t>旅游计划
 景点、路程、要求、金额等等</t>
   </si>
   <si>
-    <t>贝加尔湖旅游计划
-景点、路程、要求、金额等等</t>
+    <t>横店</t>
+  </si>
+  <si>
+    <t>贝加尔湖</t>
   </si>
   <si>
     <t>阿里应用分发平台：</t>
@@ -136,8 +138,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -179,6 +181,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -188,54 +282,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,53 +295,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -321,169 +323,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +496,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,17 +538,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,15 +570,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -562,17 +579,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,25 +596,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,7 +614,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,68 +623,68 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,52 +693,52 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,8 +1122,8 @@
   <sheetPr/>
   <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1294,25 +1296,31 @@
       </c>
       <c r="B36" s="6"/>
     </row>
-    <row r="37" ht="27" spans="1:1">
+    <row r="37" ht="27" spans="1:2">
       <c r="A37" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" ht="27" spans="1:1">
+      <c r="B37" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:2">
       <c r="A38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/dayInfo.xlsx
+++ b/dayInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18030" windowHeight="12120"/>
+    <workbookView windowWidth="19800" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>星期一</t>
   </si>
@@ -47,21 +47,18 @@
     <t>Wiz开了个头，还差各个问题解决的记录(不好一气呵成，放回去写)</t>
   </si>
   <si>
+    <t>Wiz</t>
+  </si>
+  <si>
+    <t>fiddler Https抓包教程</t>
+  </si>
+  <si>
+    <t>Wiz完成；文件已发 微信</t>
+  </si>
+  <si>
     <t>工作</t>
   </si>
   <si>
-    <t>更新集成文档
- - 混淆(加上)
- - 同盾SDK(死循环)【去掉其中一个SDK即可】</t>
-  </si>
-  <si>
-    <t>等待权限</t>
-  </si>
-  <si>
-    <t>151 5817 3907
-qwe123 丨 123456</t>
-  </si>
-  <si>
     <t>学习</t>
   </si>
   <si>
@@ -71,7 +68,7 @@
     <t>LeetCode</t>
   </si>
   <si>
-    <t>回归测试 - 37</t>
+    <t>回归测试 - 45</t>
   </si>
   <si>
     <t>极客时间-数据结构与算法之美</t>
@@ -93,24 +90,6 @@
     <t>生活</t>
   </si>
   <si>
-    <t>小说</t>
-  </si>
-  <si>
-    <t>元尊</t>
-  </si>
-  <si>
-    <t>chapter 622</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>龙族5</t>
-  </si>
-  <si>
-    <t>chapter 83 - 雷霆与守望者(34)</t>
-  </si>
-  <si>
     <t>旅游</t>
   </si>
   <si>
@@ -122,6 +101,9 @@
   </si>
   <si>
     <t>贝加尔湖</t>
+  </si>
+  <si>
+    <t>泰山</t>
   </si>
   <si>
     <t>阿里应用分发平台：</t>
@@ -139,8 +121,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -188,9 +170,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,94 +272,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -323,25 +305,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,19 +431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,115 +455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,9 +498,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,21 +533,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,11 +554,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,25 +578,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,7 +596,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,119 +612,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -752,26 +734,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1123,69 +1117,84 @@
   <dimension ref="A2:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="2" max="2" width="18.3666666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.3" customWidth="1"/>
+    <col min="3" max="3" width="36.3" style="5" customWidth="1"/>
     <col min="4" max="4" width="41.1916666666667" customWidth="1"/>
     <col min="5" max="5" width="24.45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:5">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" s="5"/>
       <c r="D3"/>
       <c r="E3"/>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="4"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:2">
+    <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="16" spans="2:2">
       <c r="B16"/>
     </row>
@@ -1195,28 +1204,24 @@
     <row r="18" spans="2:2">
       <c r="B18"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:2">
+    <row r="20" s="2" customFormat="1" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" ht="54" spans="1:3">
-      <c r="A21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:2">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
@@ -1225,7 +1230,7 @@
       <c r="B25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1233,10 +1238,10 @@
       <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1247,80 +1252,71 @@
       <c r="B28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" customFormat="1"/>
-    <row r="30" customFormat="1"/>
-    <row r="32" s="2" customFormat="1" spans="1:2">
+    <row r="29" customFormat="1" spans="3:3">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" customFormat="1" spans="3:3">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="34" customFormat="1" spans="2:3">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" customFormat="1" spans="2:3">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:3">
+      <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" ht="27" spans="1:2">
+      <c r="A37" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="38" ht="27" spans="1:2">
+      <c r="A38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:4">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="39" ht="27" spans="1:2">
+      <c r="A39" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="2:2">
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:2">
-      <c r="A36" s="2" t="s">
+      <c r="B43" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" ht="27" spans="1:2">
-      <c r="A37" s="8" t="s">
+      <c r="C43" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" ht="27" spans="1:2">
-      <c r="A38" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1339,14 +1335,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-  </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/dayInfo.xlsx
+++ b/dayInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="11430"/>
+    <workbookView windowWidth="20265" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>星期一</t>
   </si>
@@ -47,13 +47,13 @@
     <t>Wiz开了个头，还差各个问题解决的记录(不好一气呵成，放回去写)</t>
   </si>
   <si>
+    <t>算法</t>
+  </si>
+  <si>
     <t>Wiz</t>
   </si>
   <si>
-    <t>fiddler Https抓包教程</t>
-  </si>
-  <si>
-    <t>Wiz完成；文件已发 微信</t>
+    <t>算法 - 笔记</t>
   </si>
   <si>
     <t>工作</t>
@@ -62,13 +62,10 @@
     <t>学习</t>
   </si>
   <si>
-    <t>算法</t>
-  </si>
-  <si>
     <t>LeetCode</t>
   </si>
   <si>
-    <t>回归测试 - 45</t>
+    <t>回归测试 - 51</t>
   </si>
   <si>
     <t>极客时间-数据结构与算法之美</t>
@@ -120,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -163,6 +160,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -170,41 +236,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,60 +274,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -305,13 +302,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,25 +362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,7 +380,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,103 +452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,62 +475,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,11 +502,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,7 +593,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,122 +602,122 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,8 +1113,8 @@
   <sheetPr/>
   <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1181,17 +1178,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1225,24 +1219,24 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="28" ht="40.5" spans="1:3">
@@ -1250,10 +1244,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="3:3">
@@ -1264,7 +1258,7 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
@@ -1279,44 +1273,44 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
     </row>
     <row r="37" ht="27" spans="1:2">
       <c r="A37" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:2">
       <c r="A38" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="C43" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/dayInfo.xlsx
+++ b/dayInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20265" windowHeight="11190"/>
+    <workbookView windowWidth="21585" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>星期一</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>算法 - 笔记</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>demo + 笔记</t>
+  </si>
+  <si>
+    <t>Wiz - Xmind中新增URI</t>
   </si>
   <si>
     <t>工作</t>
@@ -160,17 +169,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +184,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -193,6 +201,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -204,50 +241,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,19 +252,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -302,19 +311,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,13 +425,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,127 +449,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,30 +484,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,6 +502,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -528,15 +522,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,6 +543,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -566,25 +584,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,7 +602,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,122 +611,122 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1123,7 @@
   <dimension ref="A2:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1189,6 +1198,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="16" spans="2:2">
       <c r="B16"/>
     </row>
@@ -1200,7 +1223,7 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -1212,7 +1235,7 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -1222,21 +1245,21 @@
         <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="40.5" spans="1:3">
@@ -1244,10 +1267,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="3:3">
@@ -1258,7 +1281,7 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
@@ -1273,44 +1296,44 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
     </row>
     <row r="37" ht="27" spans="1:2">
       <c r="A37" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:2">
       <c r="A38" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/dayInfo.xlsx
+++ b/dayInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20265" windowHeight="11190"/>
+    <workbookView windowWidth="27525" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -117,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -160,17 +160,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,7 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,59 +245,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,19 +267,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -302,25 +302,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,139 +446,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +475,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,41 +532,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,8 +570,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,7 +593,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,68 +602,68 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,52 +672,52 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1114,7 @@
   <dimension ref="A2:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1122,7 +1122,7 @@
     <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="2" max="2" width="18.3666666666667" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.3" style="5" customWidth="1"/>
-    <col min="4" max="4" width="41.1916666666667" customWidth="1"/>
+    <col min="4" max="4" width="26.4083333333333" customWidth="1"/>
     <col min="5" max="5" width="24.45" customWidth="1"/>
   </cols>
   <sheetData>

--- a/dayInfo.xlsx
+++ b/dayInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27525" windowHeight="13650"/>
+    <workbookView windowWidth="18675" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>星期一</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>算法 - 笔记</t>
+  </si>
+  <si>
+    <t>scheme</t>
+  </si>
+  <si>
+    <t>笔记 + demo</t>
   </si>
   <si>
     <t>工作</t>
@@ -117,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -161,54 +167,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,20 +252,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -243,33 +265,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,25 +308,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,139 +440,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,17 +499,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,20 +523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,6 +555,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -570,8 +576,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,7 +599,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,122 +608,122 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1120,7 @@
   <dimension ref="A2:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1189,6 +1195,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="16" spans="2:2">
       <c r="B16"/>
     </row>
@@ -1200,7 +1217,7 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -1212,7 +1229,7 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -1222,21 +1239,21 @@
         <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="40.5" spans="1:3">
@@ -1244,10 +1261,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="3:3">
@@ -1258,7 +1275,7 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
@@ -1273,44 +1290,44 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
     </row>
     <row r="37" ht="27" spans="1:2">
       <c r="A37" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:2">
       <c r="A38" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/dayInfo.xlsx
+++ b/dayInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18675" windowHeight="11595"/>
+    <workbookView windowWidth="15645" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>星期一</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>算法 - 笔记</t>
-  </si>
-  <si>
-    <t>scheme</t>
-  </si>
-  <si>
-    <t>笔记 + demo</t>
   </si>
   <si>
     <t>工作</t>
@@ -123,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -167,6 +161,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -174,15 +183,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,21 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -228,54 +222,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,37 +302,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,127 +452,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,6 +475,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,60 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -581,16 +536,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,7 +593,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,122 +602,122 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,7 +1114,7 @@
   <dimension ref="A2:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1195,17 +1189,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="16" spans="2:2">
       <c r="B16"/>
     </row>
@@ -1217,7 +1200,7 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -1229,7 +1212,7 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -1239,21 +1222,21 @@
         <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="28" ht="40.5" spans="1:3">
@@ -1261,10 +1244,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="3:3">
@@ -1275,7 +1258,7 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
@@ -1290,44 +1273,44 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
     </row>
     <row r="37" ht="27" spans="1:2">
       <c r="A37" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:2">
       <c r="A38" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/dayInfo.xlsx
+++ b/dayInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15645" windowHeight="11190"/>
+    <workbookView windowWidth="21510" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>星期一</t>
   </si>
@@ -35,46 +35,37 @@
     <t>提取急需</t>
   </si>
   <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>Wiz</t>
+  </si>
+  <si>
+    <t>算法 - 笔记</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>LeetCode</t>
+  </si>
+  <si>
+    <t>回归测试 - 51</t>
+  </si>
+  <si>
+    <t>极客时间-数据结构与算法之美</t>
+  </si>
+  <si>
+    <t>https://time.geekbang.org/column/intro/126</t>
+  </si>
+  <si>
+    <t>递归 - 10 如何用三行代码找到“最终推荐人”</t>
+  </si>
+  <si>
     <t>Android</t>
-  </si>
-  <si>
-    <t>aar - blog</t>
-  </si>
-  <si>
-    <t>Zxing集成方案 - CSDN</t>
-  </si>
-  <si>
-    <t>Wiz开了个头，还差各个问题解决的记录(不好一气呵成，放回去写)</t>
-  </si>
-  <si>
-    <t>算法</t>
-  </si>
-  <si>
-    <t>Wiz</t>
-  </si>
-  <si>
-    <t>算法 - 笔记</t>
-  </si>
-  <si>
-    <t>工作</t>
-  </si>
-  <si>
-    <t>学习</t>
-  </si>
-  <si>
-    <t>LeetCode</t>
-  </si>
-  <si>
-    <t>回归测试 - 51</t>
-  </si>
-  <si>
-    <t>极客时间-数据结构与算法之美</t>
-  </si>
-  <si>
-    <t>https://time.geekbang.org/column/intro/126</t>
-  </si>
-  <si>
-    <t>递归 - 10 如何用三行代码找到“最终推荐人”</t>
   </si>
   <si>
     <t>View - 自定义</t>
@@ -117,8 +108,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -139,6 +130,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -146,22 +159,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,14 +244,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,91 +265,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -290,13 +281,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,13 +329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +353,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,133 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +466,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,22 +517,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,17 +541,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,7 +584,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,139 +593,138 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1">
@@ -743,23 +733,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1111,83 +1095,72 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E43"/>
+  <dimension ref="A2:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.125" customWidth="1"/>
-    <col min="2" max="2" width="18.3666666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.3" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.3666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.3" style="4" customWidth="1"/>
     <col min="4" max="4" width="26.4083333333333" customWidth="1"/>
     <col min="5" max="5" width="24.45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:5">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
       <c r="D3"/>
       <c r="E3"/>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="4"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15"/>
     </row>
     <row r="16" spans="2:2">
       <c r="B16"/>
@@ -1195,128 +1168,125 @@
     <row r="17" spans="2:2">
       <c r="B17"/>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="12"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
+    <row r="19" s="2" customFormat="1" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="5" t="s">
+    </row>
+    <row r="27" ht="40.5" spans="1:3">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="5" t="s">
+    </row>
+    <row r="28" customFormat="1" spans="3:3">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" customFormat="1" spans="3:3">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:3">
+      <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" ht="40.5" spans="1:3">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="33" customFormat="1" spans="2:3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" customFormat="1" spans="2:3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:3">
+      <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" ht="27" spans="1:2">
+      <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" customFormat="1" spans="3:3">
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" customFormat="1" spans="3:3">
-      <c r="C30" s="5"/>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="34" customFormat="1" spans="2:3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" customFormat="1" spans="2:3">
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:3">
-      <c r="A36" s="2" t="s">
+    </row>
+    <row r="37" ht="27" spans="1:2">
+      <c r="A37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" ht="27" spans="1:2">
-      <c r="A37" s="11" t="s">
+    </row>
+    <row r="38" ht="27" spans="1:2">
+      <c r="A38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="4" t="s">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" ht="27" spans="1:2">
-      <c r="A38" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="B42" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" ht="27" spans="1:2">
-      <c r="A39" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="C42" s="13" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B43" r:id="rId1" display="957339173@qq.com"/>
-    <hyperlink ref="B26" r:id="rId2" display="https://time.geekbang.org/column/intro/126"/>
+    <hyperlink ref="B42" r:id="rId1" display="957339173@qq.com"/>
+    <hyperlink ref="B25" r:id="rId2" display="https://time.geekbang.org/column/intro/126"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
